--- a/database - circanual/percentage offspring/EP-Dam-percentage of offspring by parent birthmonth.xlsx
+++ b/database - circanual/percentage offspring/EP-Dam-percentage of offspring by parent birthmonth.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2553,237 +2553,6 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>3</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65">
-        <v>4</v>
-      </c>
-      <c r="H65">
-        <v>30</v>
-      </c>
-      <c r="I65">
-        <v>30</v>
-      </c>
-      <c r="J65">
-        <v>30</v>
-      </c>
-      <c r="M65">
-        <v>10</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66">
-        <v>5</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67">
-        <v>6</v>
-      </c>
-      <c r="D67">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="E67">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="I67">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="J67">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>7</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-      <c r="C68">
-        <v>15</v>
-      </c>
-      <c r="E68">
-        <v>10</v>
-      </c>
-      <c r="F68">
-        <v>10</v>
-      </c>
-      <c r="G68">
-        <v>15</v>
-      </c>
-      <c r="H68">
-        <v>25</v>
-      </c>
-      <c r="L68">
-        <v>10</v>
-      </c>
-      <c r="M68">
-        <v>5</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>8</v>
-      </c>
-      <c r="B69">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="C69">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="D69">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="I69">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="J69">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="M69">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>9</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>10</v>
-      </c>
-      <c r="B71">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="C71">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="E71">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="G71">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="H71">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="J71">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L71">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="M71">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>11</v>
-      </c>
-      <c r="B72">
-        <v>20</v>
-      </c>
-      <c r="I72">
-        <v>30</v>
-      </c>
-      <c r="J72">
-        <v>20</v>
-      </c>
-      <c r="K72">
-        <v>30</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>12</v>
-      </c>
-      <c r="G73">
-        <v>20</v>
-      </c>
-      <c r="H73">
-        <v>60</v>
-      </c>
-      <c r="L73">
-        <v>20</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>2020-2024</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
